--- a/medicine/Enfance/Yanghee_Lee/Yanghee_Lee.xlsx
+++ b/medicine/Enfance/Yanghee_Lee/Yanghee_Lee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yanghee Lee, ou Lee Yanghee (en coréen : 이양희), est une psychologue sud-coréenne, née le 24 juillet 1956 à Séoul.
-Spécialiste de la psychologie du développement[1] et professeure à l'université Sungkyunkwan[1],[2], elle est surtout connue pour son implication en faveur des droits humains, notamment au sein de l'ONU.
+Spécialiste de la psychologie du développement et professeure à l'université Sungkyunkwan elle est surtout connue pour son implication en faveur des droits humains, notamment au sein de l'ONU.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a fait ses études aux États-Unis, où elle est diplômée de l'université de Georgetown et de l'université du Missouri à Columbia[2].
-Entre 2007 et 2011, elle a occupé le poste de directrice du Comité des droits de l'enfant de l'ONU, dont elle a été membre entre 2003 et 2013[2].
-En 2014, elle a été rapporteure spéciale des Nations unies pour la question des droits humains en Birmanie[2]. À cette occasion, en janvier 2015, elle est publiquement insultée par le moine bouddhiste nationaliste Ashin Wirathu[3],[4],[5],[6],[7].
-Elle a publié de nombreux articles et ouvrages sur les droits des enfants, la maltraitance sur mineur et les troubles du développement[1]. De 2009 à 2011, elle participe à l'édition de trois numéros spéciaux de la publication Child Abuse and Neglect: the International Journal[1]. Elle a également créé le Centre international des droits de l'enfant[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a fait ses études aux États-Unis, où elle est diplômée de l'université de Georgetown et de l'université du Missouri à Columbia.
+Entre 2007 et 2011, elle a occupé le poste de directrice du Comité des droits de l'enfant de l'ONU, dont elle a été membre entre 2003 et 2013.
+En 2014, elle a été rapporteure spéciale des Nations unies pour la question des droits humains en Birmanie. À cette occasion, en janvier 2015, elle est publiquement insultée par le moine bouddhiste nationaliste Ashin Wirathu.
+Elle a publié de nombreux articles et ouvrages sur les droits des enfants, la maltraitance sur mineur et les troubles du développement. De 2009 à 2011, elle participe à l'édition de trois numéros spéciaux de la publication Child Abuse and Neglect: the International Journal. Elle a également créé le Centre international des droits de l'enfant.
 </t>
         </is>
       </c>
@@ -546,13 +560,15 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Femme de l'année en Corée en 2007[1]
-Prix de la famille Sungkyun en 2007[1]
-Ordre du Mérite civil (en) (médaille Suk Ryu) en 2009[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Femme de l'année en Corée en 2007
+Prix de la famille Sungkyun en 2007
+Ordre du Mérite civil (en) (médaille Suk Ryu) en 2009
 Prix des droits humains (en) (attribué par la Commission nationale des droits humains de Corée (en)) en 2009
-Prix Hyo Ryung en 2011[1]</t>
+Prix Hyo Ryung en 2011</t>
         </is>
       </c>
     </row>
